--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1857990.918881002</v>
+        <v>1962170.553332075</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>239.4415781650957</v>
+        <v>6.176684336811549</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>53.45227442954707</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>243.2395284792071</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>350.3931892789115</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>73.18872674459101</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>7.906645607737993</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>3.182585533882527</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>215.1846125003611</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>27.8737948662548</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.83107808278533</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.41770597126251</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>113.5262552810684</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>94.64226186542876</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>151.8518831495035</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701365</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>68.07731664460677</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>101.9154861872846</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>167.7243167060849</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>145.4338103776679</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.84300698292906</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>114.2173032139413</v>
       </c>
       <c r="G31" t="n">
-        <v>126.9263824507425</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712557</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>146.0535160667591</v>
+        <v>206.7582264966181</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>34.03048557918976</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.6895341487369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>283.1919565264312</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>7.069540131684027</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139986</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.155841175243</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.016509199431</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4477,55 +4479,55 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.046920809059</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
         <v>1494.054724415577</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2232.598233480555</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>1863.635716540143</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>873.4274344054652</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>462.4415296158576</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544677</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.5194080306463</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.680167749271</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C7" t="n">
-        <v>616.7439848213642</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="D7" t="n">
-        <v>466.6273454090284</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="E7" t="n">
-        <v>318.7142518266353</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>171.8243043287249</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>171.8243043287249</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.527932658019</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.110762621058</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1188.121211723041</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>967.3286325795108</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204828</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1681.836054204828</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.570355598078</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>937.7821029998333</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>526.7961982102258</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>111.7237480552223</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>555.4774356872693</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1848.677297499821</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1848.677297499821</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1626.910682069347</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1626.910682069347</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.22619386346</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.809023826499</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038295</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2411.187623003223</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5255,55 +5257,55 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.972636491141</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>189.4149073564858</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,16 +5840,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2815.530845237134</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>2646.594662309227</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309227</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309227</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>4279.138325007571</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>3990.063098351769</v>
+        <v>4335.421017366253</v>
       </c>
       <c r="V22" t="n">
-        <v>3735.378610145882</v>
+        <v>4080.736529160366</v>
       </c>
       <c r="W22" t="n">
-        <v>3445.961440108921</v>
+        <v>3791.319359123406</v>
       </c>
       <c r="X22" t="n">
-        <v>3217.971889210904</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y22" t="n">
-        <v>2997.179310067374</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O24" t="n">
         <v>2516.421633107662</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="E25" t="n">
         <v>631.7012443408905</v>
@@ -6154,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2210.498878109345</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1990.897413132287</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1701.822186476484</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1447.137698270597</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1157.720528233637</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>929.7309773356194</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356194</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,49 +6214,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933887</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>2856.301198723907</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>2708.388105141514</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>2708.388105141514</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2383.485298749019</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2200.630464403924</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.028999426865</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.953772771063</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.269284565176</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.269284565176</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236284</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6448,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,22 +6475,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277359</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277359</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277359</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6737,13 +6739,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2815.530845237133</v>
+        <v>2897.617548589223</v>
       </c>
       <c r="C34" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218394</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>4580.826493336718</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>4361.22502835966</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>4072.149801703858</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>3817.465313497971</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>3528.04814346101</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>3300.058592562993</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>3079.266013419463</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.73418800155</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661308</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661308</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376188</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218386</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866299</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296623</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822162</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998102</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729137</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673938</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018136</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V37" t="n">
-        <v>3967.581952910298</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>3678.164782873338</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3450.17523197532</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3229.38265283179</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="44">
@@ -7640,40 +7642,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.7311804011399</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>699.7311804011399</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1874.263433515775</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1619.578945309888</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1330.161775272927</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1102.17222437491</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>881.3796452313796</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10121,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.49719203145273e-12</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>145.6085800303821</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>66.30572490086888</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>70.88187642684008</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>134.6711151870875</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>218.1071577446374</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>44.51847645928456</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.30196929555973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>20.09032791460095</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.532239727192596</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>31.20374480898991</v>
       </c>
       <c r="G31" t="n">
-        <v>38.59775584152634</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.2291039219411</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038893</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>106.0841272570689</v>
+        <v>45.37941682720987</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.992517862812974</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>211.5151132204108</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.7529397653</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26353,7 +26355,7 @@
         <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>6.34467155123275e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>7.529293032435125e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.740199767097476e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319417</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
@@ -26430,28 +26432,28 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
-        <v>13606.80811184265</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184284</v>
-      </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954743.2902671808</v>
+        <v>-954743.2902671812</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.4554604108</v>
+        <v>374001.4554604114</v>
       </c>
       <c r="D6" t="n">
-        <v>374001.4554604111</v>
+        <v>374001.4554604113</v>
       </c>
       <c r="E6" t="n">
-        <v>124860.8200398995</v>
+        <v>124860.8200398991</v>
       </c>
       <c r="F6" t="n">
         <v>450273.2818472545</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472542</v>
+        <v>450273.2818472544</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472544</v>
+        <v>450273.2818472549</v>
       </c>
       <c r="I6" t="n">
-        <v>450273.2818472547</v>
+        <v>450273.2818472548</v>
       </c>
       <c r="J6" t="n">
-        <v>232742.079449977</v>
+        <v>232742.0794499775</v>
       </c>
       <c r="K6" t="n">
-        <v>450273.2818472548</v>
+        <v>450273.2818472545</v>
       </c>
       <c r="L6" t="n">
         <v>450273.2818472547</v>
       </c>
       <c r="M6" t="n">
-        <v>365218.2539117426</v>
+        <v>365218.2539117427</v>
       </c>
       <c r="N6" t="n">
         <v>450273.2818472547</v>
@@ -26561,7 +26563,7 @@
         <v>450273.2818472548</v>
       </c>
       <c r="P6" t="n">
-        <v>450273.2818472546</v>
+        <v>450273.2818472547</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,22 +26798,22 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>130.2895225133734</v>
+        <v>363.5544163416575</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>172.2573809594901</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>111.4435131414759</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>60.52853637454194</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>73.24523590197816</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>136.8483693065828</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>291.425178853438</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>154.5464881781079</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>139.373026232373</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.101074587262</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28272,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28801,16 +28803,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.563789521155524e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29809,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29937,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29983,13 +29985,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30177,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6.13460853191865e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496639</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491737</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,25 +32560,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443689</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>514.6953762540921</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,7 +32815,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>514.695376254093</v>
       </c>
       <c r="P36" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245826</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663306</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096302</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>73.18080466315214</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999244</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8689447991536</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>372.0991318096477</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010411</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="P36" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899136</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1962170.553332075</v>
+        <v>1958157.943318081</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>6.176684336811549</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181272143</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>17.84935903930806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>350.3931892789115</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>228.0656025585486</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>73.18872674459101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487941</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>142.5708055487661</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>215.1846125003611</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>27.8737948662548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.89983420622057</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.5262552810684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>151.8518831495035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>68.07731664460677</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>101.9154861872846</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6579322793572</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.4338103776679</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>206.690869499235</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>114.2173032139413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>71.76895293959856</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3088,10 +3088,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712557</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>206.7582264966181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>219.9857967652655</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03048557918976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.069540131684027</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649823</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>697.1642891453644</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>547.0476497330286</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>399.1345561506355</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>252.2446086527251</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>84.5417720274441</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>84.5417720274441</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.178203944121</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.215687003709</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D5" t="n">
-        <v>1259.215687003709</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E5" t="n">
-        <v>873.4274344054652</v>
+        <v>1164.936665651011</v>
       </c>
       <c r="F5" t="n">
-        <v>462.4415296158576</v>
+        <v>753.9507608614038</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>338.8783107064002</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008243</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.5757713318899</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>698.5757713318899</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D7" t="n">
-        <v>698.5757713318899</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621296</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X8" t="n">
-        <v>2413.363594621723</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.224262645911</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.4774356872693</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,40 +5050,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021787</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756786</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021787</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756786</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4335.421017366253</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4080.736529160366</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3791.319359123406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836023</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>734.6461798836023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>734.6461798836023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.294644713842</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3006.417838136243</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.417838136243</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.301198723907</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.388105141514</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2708.388105141514</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>432.9862109052757</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6736,7 +6736,7 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2897.617548589223</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2728.681365661316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376196</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218394</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4580.826493336718</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4361.22502835966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4072.149801703858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3817.465313497971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3528.04814346101</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3300.058592562993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3079.266013419463</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162841</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.833967264824</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.041388121294</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5341284403486</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.30572490086888</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>134.6711151870875</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>218.1071577446374</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>44.51847645928456</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.09032791460095</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>45.44677382459301</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>31.20374480898991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038893</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.37941682720987</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>32.15184655856248</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.5151132204108</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="C4" t="n">
         <v>92793.84288319398</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319401</v>
-      </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26444,16 +26444,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26524,46 +26524,46 @@
         <v>-954743.2902671812</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.4554604114</v>
+        <v>374001.4554604111</v>
       </c>
       <c r="D6" t="n">
         <v>374001.4554604113</v>
       </c>
       <c r="E6" t="n">
-        <v>124860.8200398991</v>
+        <v>124513.4407855427</v>
       </c>
       <c r="F6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472544</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472549</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="I6" t="n">
-        <v>450273.2818472548</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="J6" t="n">
-        <v>232742.0794499775</v>
+        <v>232394.7001956201</v>
       </c>
       <c r="K6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="L6" t="n">
-        <v>450273.2818472547</v>
+        <v>449925.9025928975</v>
       </c>
       <c r="M6" t="n">
-        <v>365218.2539117427</v>
+        <v>364870.8746573856</v>
       </c>
       <c r="N6" t="n">
-        <v>450273.2818472547</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="O6" t="n">
-        <v>450273.2818472548</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="P6" t="n">
-        <v>450273.2818472547</v>
+        <v>449925.9025928976</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,13 +26798,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>363.5544163416575</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>349.8910368433321</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>78.50306137053003</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>60.52853637454194</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>66.54216182877181</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>73.24523590197816</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>108.4243664101358</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>154.5464881781079</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>139.373026232373</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.08464294440323</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29808,10 +29808,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491737</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>537.6437863443689</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>514.6953762540921</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>514.695376254093</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>537.6437863443698</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315214</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>395.0475418999244</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>372.0991318096477</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010411</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>372.0991318096486</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>395.0475418999253</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1958157.943318081</v>
+        <v>1959918.473620865</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>50.10896315666546</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.34690181272143</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>118.7766241650345</v>
       </c>
       <c r="I4" t="n">
-        <v>17.84935903930806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>228.0656025585464</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>228.0656025585486</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>61.42978662487941</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>36.89863216765408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>142.5708055487661</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.67037196991755</v>
+        <v>71.67037196991603</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.89983420622057</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>134.5665975534139</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>36.4306205949047</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>111.321323070213</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>117.6579322793572</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>206.690869499235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>71.76895293959856</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2857567969021</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9857967652655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.795585684488</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>866.1004720732712</v>
+        <v>1065.372881705155</v>
       </c>
       <c r="C4" t="n">
-        <v>697.1642891453644</v>
+        <v>896.4366987772478</v>
       </c>
       <c r="D4" t="n">
-        <v>547.0476497330286</v>
+        <v>746.320059364912</v>
       </c>
       <c r="E4" t="n">
-        <v>399.1345561506355</v>
+        <v>598.4069657825189</v>
       </c>
       <c r="F4" t="n">
-        <v>252.2446086527251</v>
+        <v>451.5170182846085</v>
       </c>
       <c r="G4" t="n">
-        <v>84.5417720274441</v>
+        <v>283.8141816593275</v>
       </c>
       <c r="H4" t="n">
-        <v>84.5417720274441</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1293.362432603172</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732712</v>
+        <v>1065.372881705155</v>
       </c>
       <c r="Y4" t="n">
-        <v>866.1004720732712</v>
+        <v>1065.372881705155</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796418</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1908.990616856006</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1550.724918249256</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.936665651011</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>753.9507608614038</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>338.8783107064002</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796415</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518386</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395028</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571097</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591993</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339183</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051533</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,67 +4780,67 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="D8" t="n">
         <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>934.567370137326</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.334475985276</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3082.356728369498</v>
       </c>
       <c r="U8" t="n">
-        <v>3181.594906913448</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="V8" t="n">
-        <v>3181.594906913448</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W8" t="n">
         <v>2828.826251643334</v>
@@ -4849,7 +4849,7 @@
         <v>2455.360493382254</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2065.221161406443</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158148</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>285.796379051221</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533123</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5041,22 +5041,22 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>802.9288273958734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>652.8121879835377</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5424,16 +5424,16 @@
         <v>229.7425191625314</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2410.164476918741</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2190.563011941682</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.48778528588</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1646.803297079993</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6007,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2261.070983590888</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.469518613829</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.7594328861248</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>96.85392869224876</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.607197794873</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.190027757912</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>962.2004768598947</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.4078977163646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433587</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>415.5933575433587</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>248.3972582582387</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1466.177978334236</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1176.760808297275</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7712573992578</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.9786782557277</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>96.85392869224876</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>125.5341284403486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10.85445046951733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>144.5956654067399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>106.0841272570753</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>63.36835372228737</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>45.44677382459301</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.11969353038614</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>32.15184655856248</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
@@ -26328,31 +26328,31 @@
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830044</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26441,25 +26441,25 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954743.2902671812</v>
+        <v>-954743.2902671811</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.4554604111</v>
+        <v>374001.4554604109</v>
       </c>
       <c r="D6" t="n">
-        <v>374001.4554604113</v>
+        <v>374001.4554604115</v>
       </c>
       <c r="E6" t="n">
-        <v>124513.4407855427</v>
+        <v>124826.082114463</v>
       </c>
       <c r="F6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="G6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.543921819</v>
       </c>
       <c r="H6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218186</v>
       </c>
       <c r="I6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="J6" t="n">
-        <v>232394.7001956201</v>
+        <v>232707.3415245415</v>
       </c>
       <c r="K6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218187</v>
       </c>
       <c r="L6" t="n">
-        <v>449925.9025928975</v>
+        <v>450238.543921819</v>
       </c>
       <c r="M6" t="n">
-        <v>364870.8746573856</v>
+        <v>365183.515986307</v>
       </c>
       <c r="N6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="O6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="P6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218188</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>332.6248785068151</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.8910368433321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>25.97839074928629</v>
       </c>
       <c r="I4" t="n">
-        <v>78.50306137053003</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>154.6682391049342</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>66.54216182877181</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>83.32522828944138</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>31.98681829672512</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>72.28912962052181</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>108.4243664101358</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.08464294440323</v>
+        <v>73.08464294440475</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138816</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340074</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
